--- a/DATA/variable.xlsx
+++ b/DATA/variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB5F1B4-C4CA-4FEE-A05F-280767CE61D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E05794-45CE-4FFE-B368-2D461FA1A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B8F5FA1-ED08-44A7-A90A-91E466D36B10}"/>
+    <workbookView xWindow="11910" yWindow="1065" windowWidth="14160" windowHeight="14880" xr2:uid="{9B8F5FA1-ED08-44A7-A90A-91E466D36B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
     <t>Quantity Produced (in packs)</t>
   </si>
   <si>
-    <t>Bintang Bakery flavor</t>
-  </si>
-  <si>
-    <t>Bintang Bakery mattress</t>
-  </si>
-  <si>
-    <t>Bintang Bakery bargain</t>
-  </si>
-  <si>
     <t>x2</t>
   </si>
   <si>
@@ -52,13 +43,22 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>Cheese Puffs</t>
+  </si>
+  <si>
+    <t>Potato Chips</t>
+  </si>
+  <si>
+    <t>Pretzels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,43 +66,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria Math"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -110,174 +83,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,57 +409,59 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3640</v>
+      <c r="C3" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9">
-        <v>520</v>
+      <c r="C4" s="1">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/variable.xlsx
+++ b/DATA/variable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E05794-45CE-4FFE-B368-2D461FA1A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E44B76-B539-452B-8E8C-51EF2E07395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="1065" windowWidth="14160" windowHeight="14880" xr2:uid="{9B8F5FA1-ED08-44A7-A90A-91E466D36B10}"/>
+    <workbookView xWindow="13665" yWindow="1440" windowWidth="13350" windowHeight="11385" xr2:uid="{9B8F5FA1-ED08-44A7-A90A-91E466D36B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Decision Variable</t>
   </si>
   <si>
-    <t>Bread Type</t>
-  </si>
-  <si>
     <t>Quantity Produced (in packs)</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Pretzels</t>
+  </si>
+  <si>
+    <t>Snack Type</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,18 +425,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>800</v>
@@ -444,10 +444,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>350</v>
@@ -455,10 +455,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>250</v>
